--- a/document/BOTイメージ.xlsx
+++ b/document/BOTイメージ.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silyu\Documents\Git\DiscordBOT_AmongUs\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2DCCD0-BCE3-4552-9D68-7B437677E4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83DDFE1-58CE-4D10-999C-9DEE9D4A0E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="図解" sheetId="2" r:id="rId1"/>
+    <sheet name="処理イメージ" sheetId="3" r:id="rId2"/>
+    <sheet name="リアクション" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +26,244 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+  <si>
+    <t>GM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Discord での操作</t>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>プレイヤーはこちらのチャットにリアクション（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）をお願いします！</t>
+    </r>
+    <rPh sb="27" eb="28">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/task</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>上記で登録したメンバーをサウンドミュート（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✖🎧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/talk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在生存者は</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常に終了しました！</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生存者</t>
+    <rPh sb="0" eb="3">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡者</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加算処理</t>
+    <rPh sb="0" eb="2">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>減算処理</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアクションがついているメンバーのみサウンドミュート解除
+死亡リアクションがついているメンバーの配列加算と生存者配列の減算</t>
+    <rPh sb="26" eb="28">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ゲンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生存リアクションを付けたメンバーIDを取得し生存者配列に加算</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生存</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>780333407061409792</t>
+  </si>
+  <si>
+    <t>リアクションＩＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +278,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -50,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,12 +308,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2047,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE84FB4-189E-4B17-AFD0-5072A956C58F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
@@ -2058,4 +2341,195 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261F76A2-153B-4ABD-85B2-C27C1BC74226}">
+  <dimension ref="B2:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="63.375" customWidth="1"/>
+    <col min="4" max="4" width="66.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" ht="37.5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48AEC11-B784-45B1-B62A-9C15FA418A4D}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4:C6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>